--- a/biology/Botanique/Grand_Boucage/Grand_Boucage.xlsx
+++ b/biology/Botanique/Grand_Boucage/Grand_Boucage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pimpinella major
 Le Grand Boucage (Pimpinella major), parfois appelé persil de bouc est une espèce de plantes vivaces de la famille des Apiacées présente dans toute l'Europe et mesurant entre 1 mètre et 1 mètre 50. Ses fleurs, présentes aux mois de juin et juillet sont généralement de couleur rose et parfois de couleur blanche, ses feuilles elles sont en en folioles dentées. Cette plante est présente dans toute l'Europe.
